--- a/Laws-and-Regulations/document_register.xlsx
+++ b/Laws-and-Regulations/document_register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ai-ml-dl\Laws-and-Regulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33B6D30-DBC6-42C2-8DDC-E24693F5B5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649DD881-C676-46D7-A773-A9CFB186A4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{C2C69FA3-706B-447F-96BC-D7270FF0E106}"/>
+    <workbookView xWindow="19103" yWindow="-98" windowWidth="28995" windowHeight="17475" xr2:uid="{C2C69FA3-706B-447F-96BC-D7270FF0E106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,10 +74,10 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Executive Orders</t>
-  </si>
-  <si>
     <t>ReleaseDate</t>
+  </si>
+  <si>
+    <t>Executive Order</t>
   </si>
 </sst>
 </file>
@@ -723,7 +723,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -784,7 +784,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="6">
         <v>45985</v>
